--- a/config_debug/fish_gun_config.xlsx
+++ b/config_debug/fish_gun_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\JyQipai_doc\config_3D\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,29 +19,295 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="41">
   <si>
     <t>line|行号</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>index|阶段索引</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>bullet_move_speed|子弹移动速度</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>fire_speed|开炮速度</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>bullet_num_limit|子弹上限</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>gun_rate|枪的倍率</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>game_id|场次ID</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>gun_icon|鱼枪的icon图片</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>bygame_icon_pao</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>bygame_icon_pao</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>bygame_icon_pao</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>bygame_icon_pao</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>bygame_icon_pao</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>bygame_icon_pao</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>bygame_icon_pao7</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>bygame_icon_pao8</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>laser_max_rate|一个激光进度条的长度</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>bygame_icon_pao1</t>
+  </si>
+  <si>
+    <t>bygame_icon_pao2</t>
+  </si>
+  <si>
+    <t>bygame_icon_pao3</t>
+  </si>
+  <si>
+    <t>bygame_icon_pao4</t>
+  </si>
+  <si>
+    <t>bygame_icon_pao5</t>
+  </si>
+  <si>
+    <t>bygame_icon_pao6</t>
+  </si>
+  <si>
+    <t>bygame_icon_pao7</t>
+  </si>
+  <si>
+    <t>bygame_icon_pao8</t>
+  </si>
+  <si>
+    <t>bygame_icon_pao9</t>
+  </si>
+  <si>
+    <t>bygame_icon_pao10</t>
+  </si>
+  <si>
+    <t>bygame_icon_pao13</t>
+  </si>
+  <si>
+    <t>bygame_icon_pao14</t>
+  </si>
+  <si>
+    <t>bygame_icon_pao15</t>
+  </si>
+  <si>
+    <t>bygame_icon_pao12</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>bullet_prefab|子弹的prefab</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>FishNetPrefab_f_2</t>
+  </si>
+  <si>
+    <t>BulletPrefab_f_1</t>
+  </si>
+  <si>
+    <t>BulletPrefab_f_2</t>
+  </si>
+  <si>
+    <t>BulletPrefab_f_3</t>
+  </si>
+  <si>
+    <t>BulletPrefab_z_1</t>
+  </si>
+  <si>
+    <t>BulletPrefab_z_2</t>
+  </si>
+  <si>
+    <t>BulletPrefab_z_3</t>
+  </si>
+  <si>
+    <t>BulletPrefab_z_4</t>
+  </si>
+  <si>
+    <t>gun_level|比赛中炮的等级</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>net_prefab|鱼网的prefab</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -72,6 +338,12 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF191F25"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -116,10 +388,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -129,14 +401,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -415,26 +691,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K58"/>
+  <dimension ref="A1:T72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C38" sqref="C38"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.875" customWidth="1"/>
-    <col min="2" max="2" width="19.75" customWidth="1"/>
-    <col min="3" max="5" width="23.75" customWidth="1"/>
-    <col min="6" max="6" width="21.75" customWidth="1"/>
-    <col min="7" max="8" width="24.25" customWidth="1"/>
-    <col min="9" max="9" width="21.125" customWidth="1"/>
-    <col min="10" max="11" width="19.75" customWidth="1"/>
-    <col min="12" max="13" width="12.75" customWidth="1"/>
+    <col min="2" max="2" width="16.5" customWidth="1"/>
+    <col min="3" max="3" width="19.75" customWidth="1"/>
+    <col min="4" max="5" width="19.25" customWidth="1"/>
+    <col min="6" max="6" width="21.625" customWidth="1"/>
+    <col min="7" max="7" width="28.25" customWidth="1"/>
+    <col min="8" max="9" width="19.25" customWidth="1"/>
+    <col min="10" max="11" width="21.125" customWidth="1"/>
+    <col min="12" max="12" width="25.125" customWidth="1"/>
+    <col min="13" max="14" width="23.75" customWidth="1"/>
+    <col min="15" max="15" width="21.75" customWidth="1"/>
+    <col min="16" max="17" width="24.25" customWidth="1"/>
+    <col min="18" max="18" width="21.125" customWidth="1"/>
+    <col min="19" max="20" width="19.75" customWidth="1"/>
+    <col min="21" max="22" width="12.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -442,705 +725,1795 @@
         <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="1">
-        <v>10</v>
+      <c r="B2" s="2">
+        <v>1</v>
       </c>
       <c r="C2" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1">
+        <f t="shared" ref="G2:G41" si="0">C2*90</f>
+        <v>9000</v>
+      </c>
+      <c r="I2" s="2"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="1">
-        <v>20</v>
+      <c r="B3" s="2">
+        <v>2</v>
       </c>
       <c r="C3" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1">
+        <f t="shared" si="0"/>
+        <v>18000</v>
+      </c>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="1">
-        <v>30</v>
+      <c r="B4" s="2">
+        <v>3</v>
       </c>
       <c r="C4" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+        <v>300</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1">
+        <f t="shared" si="0"/>
+        <v>27000</v>
+      </c>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="1">
-        <v>40</v>
+      <c r="B5" s="2">
+        <v>4</v>
       </c>
       <c r="C5" s="1">
-        <v>1</v>
-      </c>
-      <c r="D5" s="1"/>
+        <v>400</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G5" s="1">
+        <f t="shared" si="0"/>
+        <v>36000</v>
+      </c>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="1">
-        <v>50</v>
+      <c r="B6" s="2">
+        <v>5</v>
       </c>
       <c r="C6" s="1">
-        <v>1</v>
-      </c>
-      <c r="D6" s="1"/>
+        <v>500</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G6" s="1">
+        <f t="shared" si="0"/>
+        <v>45000</v>
+      </c>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="1">
-        <v>60</v>
+      <c r="B7" s="2">
+        <v>6</v>
       </c>
       <c r="C7" s="1">
-        <v>1</v>
-      </c>
-      <c r="D7" s="1"/>
+        <v>600</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G7" s="1">
+        <f t="shared" si="0"/>
+        <v>54000</v>
+      </c>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="1">
-        <v>70</v>
+      <c r="B8" s="2">
+        <v>7</v>
       </c>
       <c r="C8" s="1">
-        <v>1</v>
-      </c>
-      <c r="D8" s="1"/>
+        <v>700</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G8" s="1">
+        <f t="shared" si="0"/>
+        <v>63000</v>
+      </c>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="1">
-        <v>80</v>
+      <c r="B9" s="2">
+        <v>8</v>
       </c>
       <c r="C9" s="1">
-        <v>1</v>
-      </c>
-      <c r="D9" s="1"/>
+        <v>800</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G9" s="1">
+        <f t="shared" si="0"/>
+        <v>72000</v>
+      </c>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="1">
-        <v>90</v>
+      <c r="B10" s="2">
+        <v>9</v>
       </c>
       <c r="C10" s="1">
-        <v>1</v>
-      </c>
-      <c r="D10" s="1"/>
+        <v>900</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G10" s="1">
+        <f t="shared" si="0"/>
+        <v>81000</v>
+      </c>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="1">
-        <v>100</v>
+      <c r="B11" s="2">
+        <v>10</v>
       </c>
       <c r="C11" s="1">
-        <v>1</v>
-      </c>
-      <c r="D11" s="1"/>
+        <v>1000</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G11" s="1">
+        <f t="shared" si="0"/>
+        <v>90000</v>
+      </c>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="1">
-        <v>100</v>
+      <c r="B12" s="2">
+        <v>11</v>
       </c>
       <c r="C12" s="1">
-        <v>2</v>
-      </c>
-      <c r="D12" s="1"/>
+        <v>1000</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G12" s="1">
+        <f t="shared" si="0"/>
+        <v>90000</v>
+      </c>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="1">
-        <v>200</v>
+      <c r="B13" s="2">
+        <v>12</v>
       </c>
       <c r="C13" s="1">
-        <v>2</v>
-      </c>
-      <c r="D13" s="1"/>
+        <v>2000</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G13" s="1">
+        <f t="shared" si="0"/>
+        <v>180000</v>
+      </c>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="1">
-        <v>300</v>
+      <c r="B14" s="2">
+        <v>13</v>
       </c>
       <c r="C14" s="1">
-        <v>2</v>
-      </c>
-      <c r="D14" s="1"/>
+        <v>3000</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G14" s="1">
+        <f t="shared" si="0"/>
+        <v>270000</v>
+      </c>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="1">
-        <v>400</v>
+      <c r="B15" s="2">
+        <v>14</v>
       </c>
       <c r="C15" s="1">
-        <v>2</v>
-      </c>
-      <c r="D15" s="1"/>
+        <v>4000</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G15" s="1">
+        <f t="shared" si="0"/>
+        <v>360000</v>
+      </c>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" s="1">
-        <v>500</v>
+      <c r="B16" s="2">
+        <v>15</v>
       </c>
       <c r="C16" s="1">
-        <v>2</v>
-      </c>
-      <c r="D16" s="1"/>
+        <v>5000</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G16" s="1">
+        <f t="shared" si="0"/>
+        <v>450000</v>
+      </c>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" s="1">
-        <v>600</v>
+      <c r="B17" s="2">
+        <v>16</v>
       </c>
       <c r="C17" s="1">
-        <v>2</v>
-      </c>
-      <c r="D17" s="1"/>
+        <v>6000</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G17" s="1">
+        <f t="shared" si="0"/>
+        <v>540000</v>
+      </c>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" s="1">
-        <v>700</v>
+      <c r="B18" s="2">
+        <v>17</v>
       </c>
       <c r="C18" s="1">
-        <v>2</v>
-      </c>
-      <c r="D18" s="1"/>
+        <v>7000</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G18" s="1">
+        <f t="shared" si="0"/>
+        <v>630000</v>
+      </c>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19" s="1">
-        <v>800</v>
+      <c r="B19" s="2">
+        <v>18</v>
       </c>
       <c r="C19" s="1">
-        <v>2</v>
-      </c>
-      <c r="D19" s="1"/>
+        <v>8000</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G19" s="1">
+        <f t="shared" si="0"/>
+        <v>720000</v>
+      </c>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20" s="1">
-        <v>900</v>
+      <c r="B20" s="2">
+        <v>19</v>
       </c>
       <c r="C20" s="1">
-        <v>2</v>
-      </c>
-      <c r="D20" s="1"/>
+        <v>9000</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G20" s="1">
+        <f t="shared" si="0"/>
+        <v>810000</v>
+      </c>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>20</v>
       </c>
-      <c r="B21" s="1">
-        <v>1000</v>
+      <c r="B21" s="2">
+        <v>20</v>
       </c>
       <c r="C21" s="1">
-        <v>2</v>
-      </c>
-      <c r="D21" s="1"/>
+        <v>10000</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G21" s="1">
+        <f t="shared" si="0"/>
+        <v>900000</v>
+      </c>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>21</v>
       </c>
-      <c r="B22" s="1">
-        <v>1000</v>
+      <c r="B22" s="2">
+        <v>21</v>
       </c>
       <c r="C22" s="1">
-        <v>3</v>
-      </c>
-      <c r="D22" s="1"/>
+        <v>10000</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G22" s="1">
+        <f t="shared" si="0"/>
+        <v>900000</v>
+      </c>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>22</v>
       </c>
-      <c r="B23" s="1">
-        <v>2000</v>
+      <c r="B23" s="2">
+        <v>22</v>
       </c>
       <c r="C23" s="1">
-        <v>3</v>
-      </c>
-      <c r="D23" s="1"/>
+        <v>20000</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G23" s="1">
+        <f t="shared" si="0"/>
+        <v>1800000</v>
+      </c>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>23</v>
       </c>
-      <c r="B24" s="1">
-        <v>3000</v>
+      <c r="B24" s="2">
+        <v>23</v>
       </c>
       <c r="C24" s="1">
-        <v>3</v>
-      </c>
-      <c r="D24" s="1"/>
+        <v>30000</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G24" s="1">
+        <f t="shared" si="0"/>
+        <v>2700000</v>
+      </c>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>24</v>
       </c>
-      <c r="B25" s="1">
-        <v>4000</v>
+      <c r="B25" s="2">
+        <v>24</v>
       </c>
       <c r="C25" s="1">
-        <v>3</v>
-      </c>
-      <c r="D25" s="1"/>
+        <v>40000</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G25" s="1">
+        <f t="shared" si="0"/>
+        <v>3600000</v>
+      </c>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>25</v>
       </c>
-      <c r="B26" s="1">
-        <v>5000</v>
+      <c r="B26" s="2">
+        <v>25</v>
       </c>
       <c r="C26" s="1">
-        <v>3</v>
-      </c>
-      <c r="D26" s="1"/>
+        <v>50000</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G26" s="1">
+        <f t="shared" si="0"/>
+        <v>4500000</v>
+      </c>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>26</v>
       </c>
-      <c r="B27" s="1">
-        <v>6000</v>
+      <c r="B27" s="2">
+        <v>26</v>
       </c>
       <c r="C27" s="1">
-        <v>3</v>
-      </c>
-      <c r="D27" s="1"/>
+        <v>60000</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G27" s="1">
+        <f t="shared" si="0"/>
+        <v>5400000</v>
+      </c>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>27</v>
       </c>
-      <c r="B28" s="1">
-        <v>7000</v>
+      <c r="B28" s="2">
+        <v>27</v>
       </c>
       <c r="C28" s="1">
-        <v>3</v>
-      </c>
-      <c r="D28" s="1"/>
+        <v>70000</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G28" s="1">
+        <f t="shared" si="0"/>
+        <v>6300000</v>
+      </c>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>28</v>
       </c>
-      <c r="B29" s="1">
-        <v>8000</v>
+      <c r="B29" s="2">
+        <v>28</v>
       </c>
       <c r="C29" s="1">
-        <v>3</v>
-      </c>
-      <c r="D29" s="1"/>
+        <v>80000</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G29" s="1">
+        <f t="shared" si="0"/>
+        <v>7200000</v>
+      </c>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>29</v>
       </c>
-      <c r="B30" s="1">
-        <v>9000</v>
+      <c r="B30" s="2">
+        <v>29</v>
       </c>
       <c r="C30" s="1">
-        <v>3</v>
-      </c>
-      <c r="D30" s="1"/>
+        <v>90000</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G30" s="1">
+        <f t="shared" si="0"/>
+        <v>8100000</v>
+      </c>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>30</v>
       </c>
-      <c r="B31" s="1">
-        <v>10000</v>
+      <c r="B31" s="2">
+        <v>30</v>
       </c>
       <c r="C31" s="1">
-        <v>3</v>
-      </c>
-      <c r="D31" s="1"/>
+        <v>100000</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G31" s="1">
+        <f t="shared" si="0"/>
+        <v>9000000</v>
+      </c>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>31</v>
       </c>
-      <c r="B32" s="1">
-        <v>10000</v>
+      <c r="B32" s="2">
+        <v>31</v>
       </c>
       <c r="C32" s="1">
-        <v>4</v>
-      </c>
-      <c r="D32" s="1"/>
+        <v>100000</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G32" s="1">
+        <f t="shared" si="0"/>
+        <v>9000000</v>
+      </c>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>32</v>
       </c>
-      <c r="B33" s="1">
-        <v>20000</v>
+      <c r="B33" s="2">
+        <v>32</v>
       </c>
       <c r="C33" s="1">
-        <v>4</v>
-      </c>
-      <c r="D33" s="1"/>
+        <v>200000</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G33" s="1">
+        <f t="shared" si="0"/>
+        <v>18000000</v>
+      </c>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>33</v>
       </c>
-      <c r="B34" s="1">
-        <v>30000</v>
+      <c r="B34" s="2">
+        <v>33</v>
       </c>
       <c r="C34" s="1">
-        <v>4</v>
-      </c>
-      <c r="D34" s="1"/>
+        <v>300000</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G34" s="1">
+        <f t="shared" si="0"/>
+        <v>27000000</v>
+      </c>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>34</v>
       </c>
-      <c r="B35" s="1">
-        <v>40000</v>
+      <c r="B35" s="2">
+        <v>34</v>
       </c>
       <c r="C35" s="1">
-        <v>4</v>
-      </c>
-      <c r="D35" s="1"/>
+        <v>400000</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G35" s="1">
+        <f t="shared" si="0"/>
+        <v>36000000</v>
+      </c>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>35</v>
       </c>
-      <c r="B36" s="1">
-        <v>50000</v>
+      <c r="B36" s="2">
+        <v>35</v>
       </c>
       <c r="C36" s="1">
-        <v>4</v>
-      </c>
-      <c r="D36" s="1"/>
+        <v>500000</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G36" s="1">
+        <f t="shared" si="0"/>
+        <v>45000000</v>
+      </c>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>36</v>
       </c>
-      <c r="B37" s="1">
-        <v>60000</v>
+      <c r="B37" s="2">
+        <v>36</v>
       </c>
       <c r="C37" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+        <v>600000</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1">
+        <f t="shared" si="0"/>
+        <v>54000000</v>
+      </c>
+      <c r="J37" s="1"/>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>37</v>
       </c>
-      <c r="B38" s="1">
-        <v>70000</v>
+      <c r="B38" s="2">
+        <v>37</v>
       </c>
       <c r="C38" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+        <v>700000</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1">
+        <f t="shared" si="0"/>
+        <v>63000000</v>
+      </c>
+      <c r="J38" s="1"/>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>38</v>
       </c>
-      <c r="B39" s="1">
-        <v>80000</v>
+      <c r="B39" s="2">
+        <v>38</v>
       </c>
       <c r="C39" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+        <v>800000</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1">
+        <f t="shared" si="0"/>
+        <v>72000000</v>
+      </c>
+      <c r="J39" s="1"/>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>39</v>
       </c>
-      <c r="B40" s="1">
-        <v>90000</v>
+      <c r="B40" s="2">
+        <v>39</v>
       </c>
       <c r="C40" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+        <v>900000</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1">
+        <f t="shared" si="0"/>
+        <v>81000000</v>
+      </c>
+      <c r="J40" s="1"/>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>40</v>
       </c>
-      <c r="B41" s="1">
-        <v>100000</v>
+      <c r="B41" s="2">
+        <v>40</v>
       </c>
       <c r="C41" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1">
+        <f t="shared" si="0"/>
+        <v>90000000</v>
+      </c>
+      <c r="J41" s="1"/>
+    </row>
+    <row r="42" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A42" s="1">
+        <v>41</v>
+      </c>
+      <c r="B42" s="2">
+        <v>41</v>
+      </c>
+      <c r="C42" s="5">
+        <v>100</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E42" s="7"/>
+      <c r="F42" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G42" s="1">
+        <v>900</v>
+      </c>
+      <c r="H42" s="1">
+        <v>20</v>
+      </c>
+      <c r="I42" s="1">
+        <v>6.25</v>
+      </c>
+      <c r="J42" s="1">
+        <v>10</v>
+      </c>
+      <c r="K42" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A43" s="1">
+        <v>42</v>
+      </c>
+      <c r="B43" s="2">
+        <v>42</v>
+      </c>
+      <c r="C43" s="5">
+        <v>500</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E43" s="7"/>
+      <c r="F43" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G43" s="1">
+        <v>900</v>
+      </c>
+      <c r="H43" s="1">
+        <v>20</v>
+      </c>
+      <c r="I43" s="1">
+        <v>6.25</v>
+      </c>
+      <c r="J43" s="1">
+        <v>10</v>
+      </c>
+      <c r="K43" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A44" s="1">
+        <v>43</v>
+      </c>
+      <c r="B44" s="2">
+        <v>43</v>
+      </c>
+      <c r="C44" s="5">
+        <v>1000</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E44" s="7"/>
+      <c r="F44" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G44" s="1">
+        <v>900</v>
+      </c>
+      <c r="H44" s="1">
+        <v>20</v>
+      </c>
+      <c r="I44" s="1">
+        <v>6.25</v>
+      </c>
+      <c r="J44" s="1">
+        <v>10</v>
+      </c>
+      <c r="K44" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A45" s="1">
+        <v>44</v>
+      </c>
+      <c r="B45" s="2">
+        <v>44</v>
+      </c>
+      <c r="C45" s="5">
+        <v>2000</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E45" s="7"/>
+      <c r="F45" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G45" s="1">
+        <v>900</v>
+      </c>
+      <c r="H45" s="1">
+        <v>20</v>
+      </c>
+      <c r="I45" s="1">
+        <v>6.25</v>
+      </c>
+      <c r="J45" s="1">
+        <v>10</v>
+      </c>
+      <c r="K45" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A42" s="1"/>
-      <c r="B42" s="5"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A43" s="1"/>
-      <c r="B43" s="5"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A44" s="1"/>
-      <c r="B44" s="5"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A45" s="1"/>
-      <c r="B45" s="5"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A46" s="1"/>
-      <c r="B46" s="5"/>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A47" s="1"/>
-      <c r="B47" s="5"/>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A48" s="1"/>
-      <c r="B48" s="5"/>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A49" s="1"/>
-      <c r="B49" s="2"/>
-      <c r="C49" s="3"/>
-      <c r="D49" s="3"/>
-      <c r="E49" s="3"/>
-      <c r="F49" s="3"/>
-      <c r="G49" s="1"/>
-      <c r="H49" s="1"/>
-      <c r="I49" s="1"/>
-      <c r="J49" s="1"/>
-      <c r="K49" s="1"/>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A50" s="1"/>
-      <c r="B50" s="2"/>
-      <c r="C50" s="3"/>
-      <c r="D50" s="3"/>
-      <c r="E50" s="3"/>
-      <c r="F50" s="3"/>
-      <c r="G50" s="1"/>
-      <c r="H50" s="1"/>
-      <c r="I50" s="1"/>
-      <c r="J50" s="1"/>
-      <c r="K50" s="1"/>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A51" s="1"/>
-      <c r="B51" s="2"/>
-      <c r="C51" s="3"/>
-      <c r="D51" s="3"/>
-      <c r="E51" s="3"/>
-      <c r="F51" s="3"/>
-      <c r="G51" s="1"/>
-      <c r="H51" s="1"/>
-      <c r="I51" s="1"/>
-      <c r="J51" s="1"/>
-      <c r="K51" s="1"/>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A52" s="1"/>
-      <c r="B52" s="2"/>
-      <c r="C52" s="3"/>
-      <c r="D52" s="3"/>
-      <c r="E52" s="3"/>
-      <c r="F52" s="3"/>
-      <c r="G52" s="1"/>
-      <c r="H52" s="1"/>
-      <c r="I52" s="1"/>
-      <c r="J52" s="1"/>
-      <c r="K52" s="1"/>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A53" s="1"/>
-      <c r="B53" s="2"/>
-      <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
-      <c r="E53" s="1"/>
-      <c r="F53" s="1"/>
-      <c r="G53" s="1"/>
-      <c r="H53" s="1"/>
-      <c r="I53" s="1"/>
-      <c r="J53" s="1"/>
-      <c r="K53" s="1"/>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A54" s="1"/>
-      <c r="B54" s="2"/>
-      <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
-      <c r="E54" s="1"/>
-      <c r="F54" s="1"/>
-      <c r="G54" s="1"/>
-      <c r="H54" s="1"/>
-      <c r="I54" s="1"/>
-      <c r="J54" s="1"/>
-      <c r="K54" s="1"/>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A46" s="1">
+        <v>45</v>
+      </c>
+      <c r="B46" s="2">
+        <v>45</v>
+      </c>
+      <c r="C46" s="5">
+        <v>100</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G46" s="1">
+        <v>900</v>
+      </c>
+      <c r="H46" s="1">
+        <v>20</v>
+      </c>
+      <c r="I46" s="1">
+        <v>3.125</v>
+      </c>
+      <c r="J46" s="1">
+        <v>10</v>
+      </c>
+      <c r="K46" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A47" s="1">
+        <v>46</v>
+      </c>
+      <c r="B47" s="2">
+        <v>46</v>
+      </c>
+      <c r="C47" s="5">
+        <v>200</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G47" s="1">
+        <v>900</v>
+      </c>
+      <c r="H47" s="1">
+        <v>20</v>
+      </c>
+      <c r="I47" s="1">
+        <v>3.125</v>
+      </c>
+      <c r="J47" s="1">
+        <v>10</v>
+      </c>
+      <c r="K47" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A48" s="1">
+        <v>47</v>
+      </c>
+      <c r="B48" s="2">
+        <v>47</v>
+      </c>
+      <c r="C48" s="5">
+        <v>300</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G48" s="1">
+        <v>900</v>
+      </c>
+      <c r="H48" s="1">
+        <v>20</v>
+      </c>
+      <c r="I48" s="1">
+        <v>3.125</v>
+      </c>
+      <c r="J48" s="1">
+        <v>10</v>
+      </c>
+      <c r="K48" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A49" s="1">
+        <v>48</v>
+      </c>
+      <c r="B49" s="2">
+        <v>48</v>
+      </c>
+      <c r="C49" s="5">
+        <v>600</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G49" s="1">
+        <v>900</v>
+      </c>
+      <c r="H49" s="1">
+        <v>20</v>
+      </c>
+      <c r="I49" s="1">
+        <v>3.125</v>
+      </c>
+      <c r="J49" s="1">
+        <v>10</v>
+      </c>
+      <c r="K49" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A50" s="1">
+        <v>49</v>
+      </c>
+      <c r="B50" s="2">
+        <v>49</v>
+      </c>
+      <c r="C50" s="5">
+        <v>500</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G50" s="1">
+        <v>900</v>
+      </c>
+      <c r="H50" s="1">
+        <v>20</v>
+      </c>
+      <c r="I50" s="1">
+        <v>3.125</v>
+      </c>
+      <c r="J50" s="1">
+        <v>10</v>
+      </c>
+      <c r="K50" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A51" s="1">
+        <v>50</v>
+      </c>
+      <c r="B51" s="2">
+        <v>50</v>
+      </c>
+      <c r="C51" s="5">
+        <v>1500</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F51" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G51" s="1">
+        <v>900</v>
+      </c>
+      <c r="H51" s="1">
+        <v>20</v>
+      </c>
+      <c r="I51" s="1">
+        <v>3.125</v>
+      </c>
+      <c r="J51" s="1">
+        <v>10</v>
+      </c>
+      <c r="K51" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A52" s="1">
+        <v>51</v>
+      </c>
+      <c r="B52" s="2">
+        <v>51</v>
+      </c>
+      <c r="C52" s="5">
+        <v>2000</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E52" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F52" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G52" s="1">
+        <v>900</v>
+      </c>
+      <c r="H52" s="1">
+        <v>20</v>
+      </c>
+      <c r="I52" s="1">
+        <v>3.125</v>
+      </c>
+      <c r="J52" s="1">
+        <v>10</v>
+      </c>
+      <c r="K52" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A53" s="1">
+        <v>52</v>
+      </c>
+      <c r="B53" s="2">
+        <v>52</v>
+      </c>
+      <c r="C53" s="5">
+        <v>1500</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E53" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F53" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G53" s="1">
+        <v>900</v>
+      </c>
+      <c r="H53" s="1">
+        <v>20</v>
+      </c>
+      <c r="I53" s="1">
+        <v>3.125</v>
+      </c>
+      <c r="J53" s="1">
+        <v>10</v>
+      </c>
+      <c r="K53" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A54" s="1">
+        <v>53</v>
+      </c>
+      <c r="B54" s="2">
+        <v>53</v>
+      </c>
+      <c r="C54" s="5">
+        <v>3500</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E54" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F54" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G54" s="1">
+        <v>900</v>
+      </c>
+      <c r="H54" s="1">
+        <v>20</v>
+      </c>
+      <c r="I54" s="1">
+        <v>3.125</v>
+      </c>
+      <c r="J54" s="1">
+        <v>10</v>
+      </c>
+      <c r="K54" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A55" s="1"/>
       <c r="B55" s="2"/>
-      <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
-      <c r="E55" s="1"/>
-      <c r="F55" s="1"/>
-      <c r="G55" s="1"/>
+      <c r="C55" s="5"/>
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
       <c r="J55" s="1"/>
-      <c r="K55" s="1"/>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="56" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A56" s="1"/>
       <c r="B56" s="2"/>
-      <c r="C56" s="1"/>
-      <c r="D56" s="1"/>
-      <c r="E56" s="1"/>
-      <c r="F56" s="1"/>
-      <c r="G56" s="1"/>
+      <c r="C56" s="5"/>
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
       <c r="J56" s="1"/>
-      <c r="K56" s="1"/>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="57" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A57" s="1"/>
       <c r="B57" s="2"/>
-      <c r="C57" s="1"/>
-      <c r="D57" s="1"/>
-      <c r="E57" s="1"/>
-      <c r="F57" s="1"/>
-      <c r="G57" s="1"/>
+      <c r="C57" s="5"/>
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
       <c r="J57" s="1"/>
-      <c r="K57" s="1"/>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="58" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A58" s="1"/>
       <c r="B58" s="2"/>
-      <c r="C58" s="1"/>
-      <c r="D58" s="1"/>
-      <c r="E58" s="1"/>
-      <c r="F58" s="1"/>
-      <c r="G58" s="1"/>
+      <c r="C58" s="5"/>
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
       <c r="J58" s="1"/>
-      <c r="K58" s="1"/>
+    </row>
+    <row r="59" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A59" s="1"/>
+      <c r="B59" s="2"/>
+      <c r="C59" s="5"/>
+      <c r="H59" s="1"/>
+      <c r="I59" s="1"/>
+      <c r="J59" s="1"/>
+    </row>
+    <row r="60" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A60" s="1"/>
+      <c r="B60" s="1"/>
+      <c r="C60" s="5"/>
+    </row>
+    <row r="61" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A61" s="1"/>
+      <c r="B61" s="1"/>
+      <c r="C61" s="5"/>
+    </row>
+    <row r="62" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A62" s="1"/>
+      <c r="B62" s="1"/>
+      <c r="C62" s="2"/>
+      <c r="D62" s="2"/>
+      <c r="E62" s="2"/>
+      <c r="F62" s="3"/>
+      <c r="H62" s="2"/>
+      <c r="I62" s="2"/>
+      <c r="J62" s="2"/>
+      <c r="K62" s="6"/>
+      <c r="L62" s="6"/>
+      <c r="M62" s="3"/>
+      <c r="N62" s="3"/>
+      <c r="O62" s="3"/>
+      <c r="P62" s="1"/>
+      <c r="Q62" s="1"/>
+      <c r="R62" s="1"/>
+      <c r="S62" s="1"/>
+      <c r="T62" s="1"/>
+    </row>
+    <row r="63" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A63" s="1"/>
+      <c r="B63" s="1"/>
+      <c r="C63" s="2"/>
+      <c r="D63" s="2"/>
+      <c r="E63" s="2"/>
+      <c r="F63" s="3"/>
+      <c r="G63" s="6"/>
+      <c r="H63" s="2"/>
+      <c r="I63" s="2"/>
+      <c r="J63" s="2"/>
+      <c r="K63" s="6"/>
+      <c r="L63" s="6"/>
+      <c r="M63" s="3"/>
+      <c r="N63" s="3"/>
+      <c r="O63" s="3"/>
+      <c r="P63" s="1"/>
+      <c r="Q63" s="1"/>
+      <c r="R63" s="1"/>
+      <c r="S63" s="1"/>
+      <c r="T63" s="1"/>
+    </row>
+    <row r="64" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A64" s="1"/>
+      <c r="B64" s="1"/>
+      <c r="C64" s="2"/>
+      <c r="D64" s="2"/>
+      <c r="E64" s="2"/>
+      <c r="F64" s="3"/>
+      <c r="G64" s="6"/>
+      <c r="H64" s="2"/>
+      <c r="I64" s="2"/>
+      <c r="J64" s="2"/>
+      <c r="K64" s="6"/>
+      <c r="L64" s="6"/>
+      <c r="M64" s="3"/>
+      <c r="N64" s="3"/>
+      <c r="O64" s="3"/>
+      <c r="P64" s="1"/>
+      <c r="Q64" s="1"/>
+      <c r="R64" s="1"/>
+      <c r="S64" s="1"/>
+      <c r="T64" s="1"/>
+    </row>
+    <row r="65" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A65" s="1"/>
+      <c r="B65" s="1"/>
+      <c r="C65" s="2"/>
+      <c r="D65" s="2"/>
+      <c r="E65" s="2"/>
+      <c r="F65" s="3"/>
+      <c r="G65" s="6"/>
+      <c r="H65" s="2"/>
+      <c r="I65" s="2"/>
+      <c r="J65" s="2"/>
+      <c r="K65" s="6"/>
+      <c r="L65" s="6"/>
+      <c r="M65" s="3"/>
+      <c r="N65" s="3"/>
+      <c r="O65" s="3"/>
+      <c r="P65" s="1"/>
+      <c r="Q65" s="1"/>
+      <c r="R65" s="1"/>
+      <c r="S65" s="1"/>
+      <c r="T65" s="1"/>
+    </row>
+    <row r="66" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A66" s="1"/>
+      <c r="B66" s="1"/>
+      <c r="C66" s="2"/>
+      <c r="D66" s="2"/>
+      <c r="E66" s="2"/>
+      <c r="F66" s="1"/>
+      <c r="G66" s="6"/>
+      <c r="H66" s="2"/>
+      <c r="I66" s="2"/>
+      <c r="J66" s="2"/>
+      <c r="K66" s="6"/>
+      <c r="L66" s="6"/>
+      <c r="M66" s="1"/>
+      <c r="N66" s="1"/>
+      <c r="O66" s="1"/>
+      <c r="P66" s="1"/>
+      <c r="Q66" s="1"/>
+      <c r="R66" s="1"/>
+      <c r="S66" s="1"/>
+      <c r="T66" s="1"/>
+    </row>
+    <row r="67" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A67" s="1"/>
+      <c r="B67" s="1"/>
+      <c r="C67" s="2"/>
+      <c r="D67" s="2"/>
+      <c r="E67" s="2"/>
+      <c r="F67" s="1"/>
+      <c r="G67" s="6"/>
+      <c r="H67" s="2"/>
+      <c r="I67" s="2"/>
+      <c r="J67" s="2"/>
+      <c r="K67" s="6"/>
+      <c r="L67" s="6"/>
+      <c r="M67" s="1"/>
+      <c r="N67" s="1"/>
+      <c r="O67" s="1"/>
+      <c r="P67" s="1"/>
+      <c r="Q67" s="1"/>
+      <c r="R67" s="1"/>
+      <c r="S67" s="1"/>
+      <c r="T67" s="1"/>
+    </row>
+    <row r="68" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A68" s="1"/>
+      <c r="B68" s="1"/>
+      <c r="C68" s="2"/>
+      <c r="D68" s="2"/>
+      <c r="E68" s="2"/>
+      <c r="F68" s="1"/>
+      <c r="G68" s="6"/>
+      <c r="H68" s="2"/>
+      <c r="I68" s="2"/>
+      <c r="J68" s="2"/>
+      <c r="K68" s="1"/>
+      <c r="L68" s="1"/>
+      <c r="M68" s="1"/>
+      <c r="N68" s="1"/>
+      <c r="O68" s="1"/>
+      <c r="P68" s="1"/>
+      <c r="Q68" s="1"/>
+      <c r="R68" s="1"/>
+      <c r="S68" s="1"/>
+      <c r="T68" s="1"/>
+    </row>
+    <row r="69" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A69" s="1"/>
+      <c r="B69" s="1"/>
+      <c r="C69" s="2"/>
+      <c r="D69" s="2"/>
+      <c r="E69" s="2"/>
+      <c r="F69" s="1"/>
+      <c r="G69" s="1"/>
+      <c r="H69" s="2"/>
+      <c r="I69" s="2"/>
+      <c r="J69" s="2"/>
+      <c r="K69" s="1"/>
+      <c r="L69" s="1"/>
+      <c r="M69" s="1"/>
+      <c r="N69" s="1"/>
+      <c r="O69" s="1"/>
+      <c r="P69" s="1"/>
+      <c r="Q69" s="1"/>
+      <c r="R69" s="1"/>
+      <c r="S69" s="1"/>
+      <c r="T69" s="1"/>
+    </row>
+    <row r="70" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A70" s="1"/>
+      <c r="B70" s="1"/>
+      <c r="C70" s="2"/>
+      <c r="D70" s="2"/>
+      <c r="E70" s="2"/>
+      <c r="F70" s="1"/>
+      <c r="G70" s="1"/>
+      <c r="H70" s="2"/>
+      <c r="I70" s="2"/>
+      <c r="J70" s="2"/>
+      <c r="K70" s="1"/>
+      <c r="L70" s="1"/>
+      <c r="M70" s="1"/>
+      <c r="N70" s="1"/>
+      <c r="O70" s="1"/>
+      <c r="P70" s="1"/>
+      <c r="Q70" s="1"/>
+      <c r="R70" s="1"/>
+      <c r="S70" s="1"/>
+      <c r="T70" s="1"/>
+    </row>
+    <row r="71" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A71" s="1"/>
+      <c r="B71" s="1"/>
+      <c r="C71" s="2"/>
+      <c r="D71" s="2"/>
+      <c r="E71" s="2"/>
+      <c r="F71" s="1"/>
+      <c r="G71" s="1"/>
+      <c r="H71" s="2"/>
+      <c r="I71" s="2"/>
+      <c r="J71" s="2"/>
+      <c r="K71" s="1"/>
+      <c r="L71" s="1"/>
+      <c r="M71" s="1"/>
+      <c r="N71" s="1"/>
+      <c r="O71" s="1"/>
+      <c r="P71" s="1"/>
+      <c r="Q71" s="1"/>
+      <c r="R71" s="1"/>
+      <c r="S71" s="1"/>
+      <c r="T71" s="1"/>
+    </row>
+    <row r="72" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="G72" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
